--- a/outputs-HGR-r202/test-o__Staphylococcales_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__Staphylococcales_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>Row</t>
   </si>
@@ -199,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -209,14 +209,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,24 +241,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -271,7 +275,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -288,7 +292,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -305,7 +309,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -322,7 +326,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -339,7 +343,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -356,7 +360,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -373,7 +377,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -390,7 +394,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -407,7 +411,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -424,7 +428,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -441,7 +445,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -458,578 +462,578 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>7.7093066173041834e-05</v>
+        <v>0.00019219128812552493</v>
       </c>
       <c r="C14">
-        <v>2.2206223930189756e-14</v>
+        <v>2.2218650467580589e-14</v>
       </c>
       <c r="D14">
-        <v>0.9999229069338047</v>
+        <v>0.99980780871185226</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>0.00019219128812552493</v>
+        <v>0.00019116792253352037</v>
       </c>
       <c r="C15">
-        <v>2.2218650467580589e-14</v>
+        <v>2.2211614423035853e-14</v>
       </c>
       <c r="D15">
-        <v>0.99980780871185226</v>
+        <v>0.9998088320774442</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>0.00019116792253352037</v>
+        <v>0.00018413286336393963</v>
       </c>
       <c r="C16">
-        <v>2.2211614423035853e-14</v>
+        <v>2.2216936752699163e-14</v>
       </c>
       <c r="D16">
-        <v>0.9998088320774442</v>
+        <v>0.99981586713661386</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>0.00018413286336393963</v>
+        <v>0.00037581128148747817</v>
       </c>
       <c r="C17">
-        <v>2.2216936752699163e-14</v>
+        <v>2.2226472408454952e-14</v>
       </c>
       <c r="D17">
-        <v>0.99981586713661386</v>
+        <v>0.99962418871849035</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>0.00037581128148747817</v>
+        <v>0.074698858511419219</v>
       </c>
       <c r="C18">
-        <v>2.2226472408454952e-14</v>
+        <v>7.947031135598256e-14</v>
       </c>
       <c r="D18">
-        <v>0.99962418871849035</v>
+        <v>0.92530114148850129</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>0.074698858511419219</v>
+        <v>0.00017845492554692205</v>
       </c>
       <c r="C19">
-        <v>7.947031135598256e-14</v>
+        <v>2.2217191495081963e-14</v>
       </c>
       <c r="D19">
-        <v>0.92530114148850129</v>
+        <v>0.99982154507443088</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>0.00017845492554692205</v>
+        <v>0.00024948267587055276</v>
       </c>
       <c r="C20">
-        <v>2.2217191495081963e-14</v>
+        <v>2.2231969223207138e-14</v>
       </c>
       <c r="D20">
-        <v>0.99982154507443088</v>
+        <v>0.99975051732410725</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>0.00024948267587055276</v>
+        <v>0.00040570798037028213</v>
       </c>
       <c r="C21">
-        <v>2.2231969223207138e-14</v>
+        <v>2.2225378803258478e-14</v>
       </c>
       <c r="D21">
-        <v>0.99975051732410725</v>
+        <v>0.99959429201960759</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>0.00040570798037028213</v>
+        <v>0.0010977544367313673</v>
       </c>
       <c r="C22">
-        <v>2.2225378803258478e-14</v>
+        <v>2.2247778138098971e-14</v>
       </c>
       <c r="D22">
-        <v>0.99959429201960759</v>
+        <v>0.99890224556324636</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>0.0010977544367313673</v>
+        <v>4.4193778731631054e-05</v>
       </c>
       <c r="C23">
-        <v>2.2247778138098971e-14</v>
+        <v>2.2205392917058389e-14</v>
       </c>
       <c r="D23">
-        <v>0.99890224556324636</v>
+        <v>0.99995580622124614</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>4.4193778731631054e-05</v>
+        <v>0.0001601789169967582</v>
       </c>
       <c r="C24">
-        <v>2.2205392917058389e-14</v>
+        <v>2.2211928523011449e-14</v>
       </c>
       <c r="D24">
-        <v>0.99995580622124614</v>
+        <v>0.99983982108298108</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>0.0001601789169967582</v>
+        <v>9.1483249752435589e-05</v>
       </c>
       <c r="C25">
-        <v>2.2211928523011449e-14</v>
+        <v>2.220764528204313e-14</v>
       </c>
       <c r="D25">
-        <v>0.99983982108298108</v>
+        <v>0.9999085167502253</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>9.1483249752435589e-05</v>
+        <v>0.00012016737380235103</v>
       </c>
       <c r="C26">
-        <v>2.220764528204313e-14</v>
+        <v>2.221550694203853e-14</v>
       </c>
       <c r="D26">
-        <v>0.9999085167502253</v>
+        <v>0.99987983262617541</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
+      <c r="A27" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>0.00012016737380235103</v>
+        <v>0.00045334978133567452</v>
       </c>
       <c r="C27">
-        <v>2.221550694203853e-14</v>
+        <v>2.224153535673865e-14</v>
       </c>
       <c r="D27">
-        <v>0.99987983262617541</v>
+        <v>0.99954665021864209</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>0.00045334978133567452</v>
+        <v>0.00017651859225360783</v>
       </c>
       <c r="C28">
-        <v>2.224153535673865e-14</v>
+        <v>2.2208423235732989e-14</v>
       </c>
       <c r="D28">
-        <v>0.99954665021864209</v>
+        <v>0.99982348140772415</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+      <c r="A29" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>0.00017651859225360783</v>
+        <v>0.00019885540148711569</v>
       </c>
       <c r="C29">
-        <v>2.2208423235732989e-14</v>
+        <v>2.2214083744202828e-14</v>
       </c>
       <c r="D29">
-        <v>0.99982348140772415</v>
+        <v>0.99980114459849068</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
+      <c r="A30" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>0.00019885540148711569</v>
+        <v>0.00027930058714555208</v>
       </c>
       <c r="C30">
-        <v>2.2214083744202828e-14</v>
+        <v>2.2210006587519974e-14</v>
       </c>
       <c r="D30">
-        <v>0.99980114459849068</v>
+        <v>0.99972069941283226</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
+      <c r="A31" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.00027930058714555208</v>
+        <v>0.00020780194235717764</v>
       </c>
       <c r="C31">
-        <v>2.2210006587519974e-14</v>
+        <v>2.2219155405436138e-14</v>
       </c>
       <c r="D31">
-        <v>0.99972069941283226</v>
+        <v>0.99979219805762054</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
+      <c r="A32" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.00010804572165161039</v>
+        <v>0.00013249385422480918</v>
       </c>
       <c r="C32">
-        <v>2.2207637925344034e-14</v>
+        <v>2.22120831189608e-14</v>
       </c>
       <c r="D32">
-        <v>0.99989195427832611</v>
+        <v>0.99986750614575304</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
+      <c r="A33" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>0.00020780194235717764</v>
+        <v>0.00013049641974069456</v>
       </c>
       <c r="C33">
-        <v>2.2219155405436138e-14</v>
+        <v>2.2212359898559277e-14</v>
       </c>
       <c r="D33">
-        <v>0.99979219805762054</v>
+        <v>0.99986950358023707</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
+      <c r="A34" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>0.00013249385422480918</v>
+        <v>0.00069376679173127848</v>
       </c>
       <c r="C34">
-        <v>2.22120831189608e-14</v>
+        <v>2.8288843440469948e-14</v>
       </c>
       <c r="D34">
-        <v>0.99986750614575304</v>
+        <v>0.99930623320824041</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
+      <c r="A35" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>0.063827366338936931</v>
+        <v>0.00029176780493100072</v>
       </c>
       <c r="C35">
-        <v>6.9119601279446708e-14</v>
+        <v>2.2227490492211748e-14</v>
       </c>
       <c r="D35">
-        <v>0.9361726336609939</v>
+        <v>0.99970823219504668</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
+      <c r="A36" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>0.00013049641974069456</v>
+        <v>0.00030419479306294857</v>
       </c>
       <c r="C36">
-        <v>2.2212359898559277e-14</v>
+        <v>2.2226040703207455e-14</v>
       </c>
       <c r="D36">
-        <v>0.99986950358023707</v>
+        <v>0.99969580520691481</v>
       </c>
       <c r="E36">
         <v>3</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
+      <c r="A37" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>0.00069376679173127848</v>
+        <v>0.0001279609390541903</v>
       </c>
       <c r="C37">
-        <v>2.8288843440469948e-14</v>
+        <v>2.2210700161843187e-14</v>
       </c>
       <c r="D37">
-        <v>0.99930623320824041</v>
+        <v>0.99987203906092359</v>
       </c>
       <c r="E37">
         <v>3</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
+      <c r="A38" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>0.00029176780493100072</v>
+        <v>0.0001532832518321431</v>
       </c>
       <c r="C38">
-        <v>2.2227490492211748e-14</v>
+        <v>2.2219492524977724e-14</v>
       </c>
       <c r="D38">
-        <v>0.99970823219504668</v>
+        <v>0.99984671674814563</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
+      <c r="A39" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B39">
-        <v>0.00030419479306294857</v>
+        <v>0.00017044903439904547</v>
       </c>
       <c r="C39">
-        <v>2.2226040703207455e-14</v>
+        <v>2.2222966950113015e-14</v>
       </c>
       <c r="D39">
-        <v>0.99969580520691481</v>
+        <v>0.99982955096557868</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
+      <c r="A40" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>0.0001279609390541903</v>
+        <v>5.568013977240045e-05</v>
       </c>
       <c r="C40">
-        <v>2.2210700161843187e-14</v>
+        <v>2.2207953831788905e-14</v>
       </c>
       <c r="D40">
-        <v>0.99987203906092359</v>
+        <v>0.99994431986020538</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
+      <c r="A41" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B41">
-        <v>0.0001532832518321431</v>
+        <v>8.7550403857287253e-05</v>
       </c>
       <c r="C41">
-        <v>2.2219492524977724e-14</v>
+        <v>2.2206017834264796e-14</v>
       </c>
       <c r="D41">
-        <v>0.99984671674814563</v>
+        <v>0.99991244959612058</v>
       </c>
       <c r="E41">
         <v>3</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
+      <c r="A42" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B42">
-        <v>0.00017044903439904547</v>
+        <v>0.00020319647711473842</v>
       </c>
       <c r="C42">
-        <v>2.2222966950113015e-14</v>
+        <v>2.2223102202266573e-14</v>
       </c>
       <c r="D42">
-        <v>0.99982955096557868</v>
+        <v>0.99979680352286304</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
+      <c r="A43" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B43">
-        <v>5.568013977240045e-05</v>
+        <v>0.0003185298041411673</v>
       </c>
       <c r="C43">
-        <v>2.2207953831788905e-14</v>
+        <v>2.2239107559177049e-14</v>
       </c>
       <c r="D43">
-        <v>0.99994431986020538</v>
+        <v>0.99968147019583664</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
+      <c r="A44" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B44">
-        <v>8.7550403857287253e-05</v>
+        <v>0.00019513019671047152</v>
       </c>
       <c r="C44">
-        <v>2.2206017834264796e-14</v>
+        <v>2.2215584533770989e-14</v>
       </c>
       <c r="D44">
-        <v>0.99991244959612058</v>
+        <v>0.99980486980326733</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
+      <c r="A45" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B45">
-        <v>0.00020319647711473842</v>
+        <v>0.00012060480939534727</v>
       </c>
       <c r="C45">
-        <v>2.2223102202266573e-14</v>
+        <v>2.2211655771935629e-14</v>
       </c>
       <c r="D45">
-        <v>0.99979680352286304</v>
+        <v>0.99987939519058244</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
+      <c r="A46" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B46">
-        <v>0.0003185298041411673</v>
+        <v>0.00010025772885195878</v>
       </c>
       <c r="C46">
-        <v>2.2239107559177049e-14</v>
+        <v>2.2209402801759009e-14</v>
       </c>
       <c r="D46">
-        <v>0.99968147019583664</v>
+        <v>0.99989974227112577</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
+      <c r="A47" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>0.00019513019671047152</v>
+        <v>8.1085214915631949e-05</v>
       </c>
       <c r="C47">
-        <v>2.2215584533770989e-14</v>
+        <v>2.2208033700683865e-14</v>
       </c>
       <c r="D47">
-        <v>0.99980486980326733</v>
+        <v>0.99991891478506212</v>
       </c>
       <c r="E47">
         <v>3</v>
